--- a/车架检验表模板.xlsx
+++ b/车架检验表模板.xlsx
@@ -4,25 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14940" windowHeight="9675"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14940" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$17</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
-  <si>
-    <t>车身第四支座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>结论：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,14 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货箱第一支架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货箱第二支架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产班组：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B1-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测量类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,42 +97,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B2-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B3-L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B3-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B4-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B4-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B5-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B5-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B6-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B6-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,30 +109,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-841</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1118</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>167.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,100 +131,6 @@
   <si>
     <t>167.59</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1007.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81.32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2834.96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>186.89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2836.42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1026.71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-82.89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3095.97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-923.67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3094.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82.41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-93.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3865.41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3865.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-970.33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-90.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆孔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长圆孔</t>
-  </si>
-  <si>
-    <t>长方形</t>
   </si>
   <si>
     <r>
@@ -545,6 +383,9 @@
       <t>执行</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊圆孔</t>
   </si>
 </sst>
 </file>
@@ -1272,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1293,7 +1134,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1307,7 +1148,7 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
@@ -1321,7 +1162,7 @@
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1335,33 +1176,33 @@
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="25"/>
       <c r="J4" s="22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
@@ -1369,47 +1210,47 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="30" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="32" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -1429,7 +1270,7 @@
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="10">
         <f>D7-D6</f>
@@ -1450,39 +1291,45 @@
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="32" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -1492,19 +1339,19 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" s="10">
         <f>D10-D9</f>
-        <v>-1118</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" ref="E11:F11" si="0">E10-E9</f>
-        <v>-167.29</v>
+        <v>0</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>-80.25</v>
+        <v>0</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1513,39 +1360,45 @@
     </row>
     <row r="12" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="32" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -1555,630 +1408,63 @@
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="10">
         <f>D13-D12</f>
-        <v>-2056.5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10">
         <f>E13-E12</f>
-        <v>-167.59</v>
+        <v>0</v>
       </c>
       <c r="F14" s="10">
         <f>F13-F12</f>
-        <v>-80.5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="10">
-        <f>D16-D15</f>
-        <v>-2834.96</v>
-      </c>
-      <c r="E17" s="10">
-        <f>E16-E15</f>
-        <v>-186.89</v>
-      </c>
-      <c r="F17" s="10">
-        <f>F16-F15</f>
-        <v>-81.319999999999993</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="10">
-        <f>D19-D18</f>
-        <v>-3094.4</v>
-      </c>
-      <c r="E20" s="10">
-        <f>E19-E18</f>
-        <v>-82.41</v>
-      </c>
-      <c r="F20" s="10">
-        <f>F19-F18</f>
-        <v>82.89</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="10">
-        <f>D22-D21</f>
-        <v>-3865.41</v>
-      </c>
-      <c r="E23" s="10">
-        <f>E22-E21</f>
-        <v>-131.15</v>
-      </c>
-      <c r="F23" s="10">
-        <f>F22-F21</f>
-        <v>93.2</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="10">
-        <f>D25-D24</f>
-        <v>-3865.8</v>
-      </c>
-      <c r="E26" s="10">
-        <f>E25-E24</f>
-        <v>970.33</v>
-      </c>
-      <c r="F26" s="10">
-        <f>F25-F24</f>
-        <v>90.4</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="32"/>
-    </row>
-    <row r="29" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="10">
-        <f>D28-D27</f>
-        <v>-3095.97</v>
-      </c>
-      <c r="E29" s="10">
-        <f>E28-E27</f>
-        <v>923.67</v>
-      </c>
-      <c r="F29" s="10">
-        <f>F28-F27</f>
-        <v>83</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="10">
-        <f>D31-D30</f>
-        <v>-2836.42</v>
-      </c>
-      <c r="E32" s="10">
-        <f>E31-E30</f>
-        <v>1026.71</v>
-      </c>
-      <c r="F32" s="10">
-        <f>F31-F30</f>
-        <v>-79.3</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="10">
-        <f>D34-D33</f>
-        <v>-2060</v>
-      </c>
-      <c r="E35" s="10">
-        <f>E34-E33</f>
-        <v>1007.8</v>
-      </c>
-      <c r="F35" s="10">
-        <f>F34-F33</f>
-        <v>-81.7</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="32"/>
-    </row>
-    <row r="36" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="32"/>
-    </row>
-    <row r="38" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="10">
-        <f>D37-D36</f>
-        <v>-1118</v>
-      </c>
-      <c r="E38" s="10">
-        <f>E37-E36</f>
-        <v>1005</v>
-      </c>
-      <c r="F38" s="10">
-        <f>F37-F36</f>
-        <v>-76.31</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="32"/>
-    </row>
-    <row r="39" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="32"/>
-    </row>
-    <row r="41" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="10">
-        <f>D40-D39</f>
-        <v>-0.9</v>
-      </c>
-      <c r="E41" s="10">
-        <f>E40-E39</f>
-        <v>841</v>
-      </c>
-      <c r="F41" s="10">
-        <f>F40-F39</f>
-        <v>-0.69</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="32"/>
-    </row>
-    <row r="42" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2187,15 +1473,15 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:F11 D8:F8 D14:F14 D17:F17 D20:F20 D23:F23 D26:F26 D29:F29 D32:F32 D35:F35 D38:F38 D41:F41">
+  <conditionalFormatting sqref="D11:F11 D8:F8 D14:F14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>-0.5</formula>
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J9 J12 J15 J18 J21 J24 J27 J30 J33 J36 J39">
-      <formula1>"圆孔,长圆孔,长方形"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 J9 J12">
+      <formula1>"圆孔,长圆孔,长方形,特殊圆孔"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/车架检验表模板.xlsx
+++ b/车架检验表模板.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>结论：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,14 +98,6 @@
   </si>
   <si>
     <t>B3-L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -386,6 +378,10 @@
   </si>
   <si>
     <t>特殊圆孔</t>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -691,7 +687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -791,6 +787,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1113,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1134,7 +1140,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1162,7 +1168,7 @@
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1179,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22" t="s">
@@ -1202,7 +1208,7 @@
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
@@ -1210,10 +1216,10 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>16</v>
@@ -1237,13 +1243,13 @@
         <v>22</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1274,15 +1280,15 @@
       </c>
       <c r="D8" s="10">
         <f>D7-D6</f>
-        <v>0</v>
+        <v>-1118</v>
       </c>
       <c r="E8" s="10">
         <f>E7-E6</f>
-        <v>0</v>
+        <v>-167.29</v>
       </c>
       <c r="F8" s="10">
         <f>F7-F6</f>
-        <v>0</v>
+        <v>-80.25</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1300,19 +1306,19 @@
         <v>9</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1322,13 +1328,13 @@
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1369,19 +1375,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1391,13 +1397,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1427,44 +1433,58 @@
       <c r="I14" s="10"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:10" s="40" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1473,7 +1493,7 @@
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:F11 D8:F8 D14:F14">
+  <conditionalFormatting sqref="D11:F11 D8:F8 D14:F15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
       <formula>-0.5</formula>
       <formula>0.5</formula>
